--- a/src/main/resources/static/集团大屏新专题与预警模型0919.xlsx
+++ b/src/main/resources/static/集团大屏新专题与预警模型0919.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DC5A3A-C9B6-4B2C-85D4-75F801563909}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73679BE-BC66-4EF2-8935-7A207CF7FEBA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="大网统计模型" sheetId="11" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="302">
   <si>
     <t>漫游流量</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,10 +279,6 @@
   </si>
   <si>
     <t xml:space="preserve">decimal(30,2) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">decimal(5,2) </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1152,6 +1148,41 @@
   <si>
     <t>示例如下：{area_name},大网费用累积结出费用波动{lj_settle_out_fee_rate}，超过阈值{CONTROL_VALUE},请关注!
 规则如下：{字段名} +正常文本组成，其中{CONTROL_VALUE}固定为阀值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal(10,2) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal(10,2) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条件组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同组为或，异组为与</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量结出费用波动（环比上一日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量结入费用波动（环比上一日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量净收入波动（环比上一日）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增量结出费用波动（环比上一日）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1607,29 +1638,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E180"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="45.375" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -1646,9 +1677,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>49</v>
@@ -1663,7 +1694,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1680,7 +1711,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -1697,15 +1728,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>51</v>
@@ -1714,7 +1745,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1728,12 +1759,12 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>56</v>
@@ -1748,9 +1779,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
@@ -1765,7 +1796,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>65</v>
       </c>
@@ -1782,9 +1813,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
@@ -1799,9 +1830,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>56</v>
@@ -1816,7 +1847,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
@@ -1833,133 +1864,133 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>294</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>299</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>300</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1976,9 +2007,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>49</v>
@@ -1993,7 +2024,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
@@ -2010,12 +2041,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -2027,7 +2058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
@@ -2035,7 +2066,7 @@
         <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>51</v>
@@ -2044,12 +2075,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>45</v>
@@ -2058,42 +2089,42 @@
         <v>17</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="C30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>56</v>
@@ -2108,9 +2139,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>56</v>
@@ -2119,71 +2150,71 @@
         <v>46</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>105</v>
+        <v>301</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -2200,9 +2231,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>49</v>
@@ -2217,7 +2248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -2234,80 +2265,80 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>45</v>
@@ -2316,12 +2347,12 @@
         <v>17</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>56</v>
@@ -2336,9 +2367,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>56</v>
@@ -2353,65 +2384,65 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" s="1"/>
     </row>
-    <row r="52" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
     </row>
-    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>40</v>
       </c>
@@ -2428,9 +2459,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>49</v>
@@ -2445,7 +2476,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>59</v>
       </c>
@@ -2462,7 +2493,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
@@ -2470,7 +2501,7 @@
         <v>62</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>51</v>
@@ -2479,7 +2510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
@@ -2493,12 +2524,12 @@
         <v>17</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>56</v>
@@ -2507,15 +2538,15 @@
         <v>46</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>56</v>
@@ -2524,15 +2555,15 @@
         <v>46</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>56</v>
@@ -2547,82 +2578,82 @@
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E64" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
     </row>
-    <row r="67" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
@@ -2639,9 +2670,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>49</v>
@@ -2656,12 +2687,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>45</v>
@@ -2673,7 +2704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>61</v>
       </c>
@@ -2681,7 +2712,7 @@
         <v>62</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>51</v>
@@ -2690,12 +2721,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>45</v>
@@ -2704,42 +2735,42 @@
         <v>17</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A73" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>56</v>
@@ -2748,54 +2779,54 @@
         <v>46</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E76" s="1"/>
     </row>
-    <row r="78" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
     </row>
-    <row r="79" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>40</v>
       </c>
@@ -2812,9 +2843,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>49</v>
@@ -2829,26 +2860,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>62</v>
@@ -2857,32 +2888,32 @@
         <v>46</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A84" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>62</v>
@@ -2891,18 +2922,18 @@
         <v>46</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>45</v>
@@ -2911,12 +2942,12 @@
         <v>17</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>56</v>
@@ -2925,54 +2956,54 @@
         <v>46</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E88" s="1"/>
     </row>
-    <row r="90" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
     </row>
-    <row r="91" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>40</v>
       </c>
@@ -2989,12 +3020,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>45</v>
@@ -3006,7 +3037,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>57</v>
       </c>
@@ -3023,7 +3054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>59</v>
       </c>
@@ -3040,7 +3071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>61</v>
       </c>
@@ -3048,7 +3079,7 @@
         <v>62</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>51</v>
@@ -3057,7 +3088,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>63</v>
       </c>
@@ -3071,12 +3102,12 @@
         <v>17</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>49</v>
@@ -3085,15 +3116,15 @@
         <v>46</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>49</v>
@@ -3102,15 +3133,15 @@
         <v>46</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>49</v>
@@ -3119,15 +3150,15 @@
         <v>46</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>49</v>
@@ -3136,105 +3167,105 @@
         <v>46</v>
       </c>
       <c r="D100" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="101" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E105" s="1"/>
     </row>
-    <row r="107" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="6"/>
     </row>
-    <row r="108" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>40</v>
       </c>
@@ -3251,9 +3282,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>49</v>
@@ -3268,7 +3299,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>57</v>
       </c>
@@ -3285,94 +3316,94 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A114" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E115" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>49</v>
@@ -3381,15 +3412,15 @@
         <v>46</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>49</v>
@@ -3398,71 +3429,71 @@
         <v>46</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D118" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A118" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E120" s="1"/>
     </row>
-    <row r="122" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6"/>
     </row>
-    <row r="123" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>40</v>
       </c>
@@ -3479,12 +3510,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>45</v>
@@ -3496,7 +3527,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>59</v>
       </c>
@@ -3513,7 +3544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>61</v>
       </c>
@@ -3521,7 +3552,7 @@
         <v>62</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>51</v>
@@ -3530,7 +3561,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>63</v>
       </c>
@@ -3544,12 +3575,12 @@
         <v>17</v>
       </c>
       <c r="E127" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>49</v>
@@ -3558,15 +3589,15 @@
         <v>46</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>49</v>
@@ -3575,71 +3606,71 @@
         <v>46</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B132" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E132" s="1"/>
     </row>
-    <row r="134" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>40</v>
       </c>
@@ -3656,9 +3687,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>49</v>
@@ -3673,94 +3704,94 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A140" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>49</v>
@@ -3769,54 +3800,54 @@
         <v>46</v>
       </c>
       <c r="D142" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D143" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A143" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E144" s="1"/>
     </row>
-    <row r="146" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6"/>
     </row>
-    <row r="147" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>40</v>
       </c>
@@ -3833,9 +3864,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>49</v>
@@ -3850,7 +3881,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>59</v>
       </c>
@@ -3867,7 +3898,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>61</v>
       </c>
@@ -3875,7 +3906,7 @@
         <v>62</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>51</v>
@@ -3884,7 +3915,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>63</v>
       </c>
@@ -3898,12 +3929,12 @@
         <v>17</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>49</v>
@@ -3916,9 +3947,9 @@
       </c>
       <c r="E152" s="3"/>
     </row>
-    <row r="153" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>49</v>
@@ -3931,65 +3962,65 @@
       </c>
       <c r="E153" s="3"/>
     </row>
-    <row r="154" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E155" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E156" s="1"/>
     </row>
-    <row r="158" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="6"/>
     </row>
-    <row r="159" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>40</v>
       </c>
@@ -4006,9 +4037,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>49</v>
@@ -4023,12 +4054,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>45</v>
@@ -4040,7 +4071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>61</v>
       </c>
@@ -4048,7 +4079,7 @@
         <v>62</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>51</v>
@@ -4057,12 +4088,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>45</v>
@@ -4071,42 +4102,42 @@
         <v>17</v>
       </c>
       <c r="E163" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D164" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E164" s="5"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E164" s="5"/>
-    </row>
-    <row r="165" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A165" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>49</v>
@@ -4119,48 +4150,48 @@
       </c>
       <c r="E166" s="3"/>
     </row>
-    <row r="167" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E168" s="1"/>
     </row>
-    <row r="170" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="6"/>
     </row>
-    <row r="171" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>40</v>
       </c>
@@ -4177,9 +4208,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>49</v>
@@ -4194,26 +4225,26 @@
         <v>48</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>62</v>
@@ -4222,32 +4253,32 @@
         <v>46</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A176" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>62</v>
@@ -4256,18 +4287,18 @@
         <v>46</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>45</v>
@@ -4276,12 +4307,12 @@
         <v>17</v>
       </c>
       <c r="E177" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>56</v>
@@ -4294,35 +4325,35 @@
       </c>
       <c r="E178" s="3"/>
     </row>
-    <row r="179" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E180" s="1"/>
     </row>
@@ -4352,29 +4383,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="45.375" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -4391,9 +4422,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>49</v>
@@ -4408,7 +4439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -4425,7 +4456,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4442,7 +4473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>61</v>
       </c>
@@ -4450,7 +4481,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>51</v>
@@ -4459,7 +4490,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>63</v>
       </c>
@@ -4473,12 +4504,12 @@
         <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>56</v>
@@ -4493,9 +4524,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>56</v>
@@ -4510,7 +4541,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>65</v>
       </c>
@@ -4527,9 +4558,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>56</v>
@@ -4544,9 +4575,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>56</v>
@@ -4561,7 +4592,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>66</v>
       </c>
@@ -4578,133 +4609,133 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>40</v>
       </c>
@@ -4721,9 +4752,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>49</v>
@@ -4738,7 +4769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>57</v>
       </c>
@@ -4755,80 +4786,80 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>45</v>
@@ -4837,12 +4868,12 @@
         <v>17</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>56</v>
@@ -4857,9 +4888,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>56</v>
@@ -4874,65 +4905,65 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" s="1"/>
     </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>40</v>
       </c>
@@ -4949,12 +4980,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>45</v>
@@ -4966,7 +4997,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -4983,7 +5014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>59</v>
       </c>
@@ -5000,7 +5031,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>61</v>
       </c>
@@ -5008,7 +5039,7 @@
         <v>62</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>51</v>
@@ -5017,7 +5048,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
@@ -5031,12 +5062,12 @@
         <v>17</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>49</v>
@@ -5045,15 +5076,15 @@
         <v>46</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>49</v>
@@ -5062,15 +5093,15 @@
         <v>46</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>49</v>
@@ -5079,15 +5110,15 @@
         <v>46</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>49</v>
@@ -5096,105 +5127,105 @@
         <v>46</v>
       </c>
       <c r="D47" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E52" s="1"/>
     </row>
-    <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
     </row>
-    <row r="55" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>40</v>
       </c>
@@ -5211,9 +5242,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>49</v>
@@ -5228,7 +5259,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
@@ -5245,80 +5276,80 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A61" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>45</v>
@@ -5327,12 +5358,12 @@
         <v>17</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>49</v>
@@ -5344,12 +5375,12 @@
         <v>15</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>49</v>
@@ -5361,55 +5392,55 @@
         <v>16</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E67" s="1"/>
     </row>
@@ -5430,29 +5461,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="45.375" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -5469,9 +5500,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>49</v>
@@ -5486,7 +5517,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>59</v>
       </c>
@@ -5503,7 +5534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
@@ -5511,7 +5542,7 @@
         <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>51</v>
@@ -5520,7 +5551,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>63</v>
       </c>
@@ -5531,45 +5562,45 @@
         <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>49</v>
@@ -5582,9 +5613,9 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>49</v>
@@ -5597,48 +5628,48 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E12" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>40</v>
       </c>
@@ -5655,9 +5686,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>49</v>
@@ -5672,7 +5703,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>57</v>
       </c>
@@ -5683,13 +5714,13 @@
         <v>45</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5706,7 +5737,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -5714,7 +5745,7 @@
         <v>62</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>51</v>
@@ -5723,7 +5754,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>63</v>
       </c>
@@ -5734,45 +5765,45 @@
         <v>45</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>49</v>
@@ -5785,9 +5816,9 @@
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>49</v>
@@ -5800,31 +5831,31 @@
       </c>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E25" s="1"/>
     </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
     </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>40</v>
       </c>
@@ -5841,12 +5872,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>45</v>
@@ -5858,7 +5889,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -5869,13 +5900,13 @@
         <v>45</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -5892,15 +5923,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>51</v>
@@ -5909,7 +5940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
@@ -5920,33 +5951,33 @@
         <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="B35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>46</v>
@@ -5956,12 +5987,12 @@
       </c>
       <c r="E35" s="3"/>
     </row>
-    <row r="36" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>46</v>
@@ -5971,12 +6002,12 @@
       </c>
       <c r="E36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>45</v>
@@ -5985,12 +6016,12 @@
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>49</v>
@@ -6002,51 +6033,51 @@
         <v>0</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E39" s="3" t="s">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
-        <v>236</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
@@ -6063,12 +6094,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>45</v>
@@ -6080,7 +6111,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
@@ -6091,81 +6122,81 @@
         <v>45</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>63</v>
       </c>
@@ -6176,33 +6207,33 @@
         <v>45</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" s="3" t="s">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A52" s="3" t="s">
-        <v>230</v>
-      </c>
       <c r="B52" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>46</v>
@@ -6212,12 +6243,12 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>46</v>
@@ -6227,9 +6258,9 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>49</v>
@@ -6241,34 +6272,34 @@
         <v>0</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="E55" s="1"/>
     </row>
-    <row r="57" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
     </row>
-    <row r="58" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>40</v>
       </c>
@@ -6285,12 +6316,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>45</v>
@@ -6302,14 +6333,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="4"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
@@ -6326,15 +6357,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>51</v>
@@ -6343,7 +6374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>63</v>
       </c>
@@ -6354,62 +6385,62 @@
         <v>45</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D64" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E66" s="3" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A67" s="3" t="s">
-        <v>242</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>49</v>
@@ -6422,9 +6453,9 @@
       </c>
       <c r="E67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>49</v>
@@ -6437,9 +6468,9 @@
       </c>
       <c r="E68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>49</v>
@@ -6452,9 +6483,9 @@
       </c>
       <c r="E69" s="3"/>
     </row>
-    <row r="70" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>49</v>
@@ -6463,39 +6494,39 @@
         <v>46</v>
       </c>
       <c r="D70" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A71" s="3" t="s">
-        <v>246</v>
-      </c>
       <c r="B71" s="3" t="s">
-        <v>69</v>
+        <v>293</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="E72" s="1"/>
     </row>
@@ -6515,31 +6546,31 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362A9B92-2F93-4340-9F32-8D284C9892B7}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:E27"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="45.375" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -6556,9 +6587,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>49</v>
@@ -6567,33 +6598,33 @@
         <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>250</v>
-      </c>
       <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>45</v>
@@ -6602,15 +6633,15 @@
         <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>253</v>
-      </c>
       <c r="B6" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>45</v>
@@ -6619,30 +6650,30 @@
         <v>25</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>261</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>45</v>
@@ -6651,34 +6682,34 @@
         <v>29</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
@@ -6695,9 +6726,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>49</v>
@@ -6706,13 +6737,13 @@
         <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>49</v>
@@ -6721,16 +6752,16 @@
         <v>45</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>45</v>
@@ -6740,12 +6771,12 @@
       </c>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>45</v>
@@ -6754,15 +6785,15 @@
         <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>45</v>
@@ -6771,68 +6802,70 @@
         <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>248</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>49</v>
@@ -6841,334 +6874,349 @@
         <v>45</v>
       </c>
       <c r="D23" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="3" t="s">
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="3" t="s">
+      <c r="B46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="37" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E46" s="3"/>
+      <c r="E47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A38:E38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
